--- a/test/OpenCSTL.xlsx
+++ b/test/OpenCSTL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spring\Documents\git\springkim\OpenCSTL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwc00\Documents\GitHub\OpenCSTL\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099BF264-C190-42AA-A915-8E3ED16C4FD7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0D1730-9DF9-4A55-ADCF-0214CCA7B5C0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10605" xr2:uid="{619C67F7-00F0-4C46-A399-483E9C62B008}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="10608" xr2:uid="{619C67F7-00F0-4C46-A399-483E9C62B008}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>root</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,22 @@
   </si>
   <si>
     <t>type**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opencstl_stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opencstl_queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPENCSTL_STACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPENCSTL_QUEUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,29 +283,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,18 +624,18 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="23.69921875" customWidth="1"/>
+    <col min="3" max="3" width="20.59765625" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" customWidth="1"/>
+    <col min="6" max="6" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -632,54 +648,54 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="7">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C3" s="6">
         <v>-8</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>-7</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>-6</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>-5</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>-4</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>-3</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>-2</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>-1</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>1</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -694,174 +710,240 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="10"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K4" s="9"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/test/OpenCSTL.xlsx
+++ b/test/OpenCSTL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwc00\Documents\GitHub\OpenCSTL\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0D1730-9DF9-4A55-ADCF-0214CCA7B5C0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D458B56-3C48-4B92-B381-846AA358E182}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="10608" xr2:uid="{619C67F7-00F0-4C46-A399-483E9C62B008}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
   <si>
     <t>root</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,34 @@
   </si>
   <si>
     <t>OPENCSTL_QUEUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opencstl_priority_queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPENCSTL_PRIORITY_QUEUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header_sz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -306,6 +334,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,7 +655,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -935,6 +966,38 @@
         <v>2</v>
       </c>
     </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>

--- a/test/OpenCSTL.xlsx
+++ b/test/OpenCSTL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwc00\Documents\GitHub\OpenCSTL\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\code\OpenCSTL\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0D1730-9DF9-4A55-ADCF-0214CCA7B5C0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E8570A-263B-4DC6-920D-C2A9CFB3F7B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="10608" xr2:uid="{619C67F7-00F0-4C46-A399-483E9C62B008}"/>
+    <workbookView xWindow="-26580" yWindow="2190" windowWidth="23820" windowHeight="12105" xr2:uid="{619C67F7-00F0-4C46-A399-483E9C62B008}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
   <si>
     <t>root</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float_key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,6 +164,18 @@
   </si>
   <si>
     <t>OPENCSTL_QUEUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opencstl_priority_queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPENCSTL_PRIORITY_QUEUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typename</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -302,6 +310,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -624,18 +635,18 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.69921875" customWidth="1"/>
-    <col min="3" max="3" width="20.59765625" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" customWidth="1"/>
-    <col min="6" max="6" width="10.09765625" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -648,19 +659,19 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C3" s="6">
         <v>-8</v>
       </c>
@@ -695,7 +706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -714,12 +725,12 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -731,8 +742,8 @@
         <v>12</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>27</v>
+      <c r="G5" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
@@ -745,12 +756,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -762,24 +773,26 @@
         <v>12</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>27</v>
+      <c r="G6" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="K6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>19</v>
@@ -793,7 +806,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>26</v>
@@ -803,12 +816,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>21</v>
@@ -820,13 +833,13 @@
         <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>26</v>
@@ -836,12 +849,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>23</v>
@@ -853,8 +866,8 @@
         <v>12</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>27</v>
+      <c r="G9" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -869,15 +882,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -886,8 +899,8 @@
         <v>12</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>27</v>
+      <c r="G10" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -902,15 +915,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>10</v>
@@ -919,8 +932,8 @@
         <v>12</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>27</v>
+      <c r="G11" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>4</v>
@@ -935,7 +948,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
